--- a/case_study_assets/TPF-test.xlsx
+++ b/case_study_assets/TPF-test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Contagem Classificada de Veículos</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>08:15 às 08:30</t>
+  </si>
+  <si>
+    <t>12:00 às 12:15</t>
+  </si>
+  <si>
+    <t>12:15 às 12:30</t>
+  </si>
+  <si>
+    <t>12:30 às 12:45</t>
+  </si>
+  <si>
+    <t>12:45 às 13:00</t>
+  </si>
+  <si>
+    <t>14:30 às 14:45</t>
+  </si>
+  <si>
+    <t>14:45 às 15:00</t>
+  </si>
+  <si>
+    <t>15:00 às 15:15</t>
+  </si>
+  <si>
+    <t>15:15 às 15:30</t>
   </si>
 </sst>
 </file>
@@ -521,6 +545,9 @@
       <c r="H16" s="1">
         <v>2.0</v>
       </c>
+      <c r="N16" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -562,6 +589,24 @@
       <c r="M18" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -603,6 +648,24 @@
       <c r="M19" s="1">
         <v>46.0</v>
       </c>
+      <c r="N19" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>38.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -644,6 +707,24 @@
       <c r="M20" s="1">
         <v>49.0</v>
       </c>
+      <c r="N20" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -685,6 +766,24 @@
       <c r="M21" s="1">
         <v>43.0</v>
       </c>
+      <c r="N21" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
@@ -726,11 +825,502 @@
       <c r="M22" s="1">
         <v>45.0</v>
       </c>
+      <c r="N22" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>174.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>28.0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:S16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
